--- a/analysis/wsc_val_predictions/right_wrong_comp/right_3_v_1.xlsx
+++ b/analysis/wsc_val_predictions/right_wrong_comp/right_3_v_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Documents\NYU\2020 Spring\NLU\Project\Projects\WSC\wsc-trick\analysis\wsc_val_predictions\right_wrong_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028AC15-2F30-49A2-A63B-1FD6BF79E0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6A0943-4CDF-4616-BA5F-AD46225E50D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="val_gold" sheetId="1" r:id="rId1"/>
@@ -5224,8 +5224,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10657,7 +10657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53BF110-0729-4C30-82A6-9936A9B95CF1}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
